--- a/public/files/formato_supervisores_carga_masiva.xlsx
+++ b/public/files/formato_supervisores_carga_masiva.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\avintech\app-anvitech\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\Anvitech - new-starsoft\app-anvitech-new\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6159E1F-BFFF-4802-8573-889EB379ED9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB6E6B-12AA-4493-A39E-2AB359974F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>gerente_comercial</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>nombre supervisor</t>
+  </si>
+  <si>
+    <t>nombre coordinador</t>
+  </si>
+  <si>
+    <t>nombre gerente</t>
   </si>
 </sst>
 </file>
@@ -386,14 +386,14 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
   </cols>
